--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
     <t>Цвет</t>
   </si>
   <si>
-    <t>Ссылка на изображение</t>
-  </si>
-  <si>
     <t>Юбки</t>
   </si>
   <si>
@@ -125,15 +122,6 @@
     <t>М</t>
   </si>
   <si>
-    <t>http://vk.com/photo-83928126_409606951</t>
-  </si>
-  <si>
-    <t>http://vk.com/photo-83928126_409607224</t>
-  </si>
-  <si>
-    <t>http://vk.com/photo-83928126_415214092</t>
-  </si>
-  <si>
     <t>юбка-пачка черная</t>
   </si>
   <si>
@@ -152,24 +140,6 @@
     <t>Плтаье хлопковое</t>
   </si>
   <si>
-    <t>http://vk.com/photo-83928126_415214103</t>
-  </si>
-  <si>
-    <t>http://vk.com/photo-83928126_415214133</t>
-  </si>
-  <si>
-    <t>http://vk.com/photo-83928126_415214169</t>
-  </si>
-  <si>
-    <t>http://vk.com/photo-83928126_415214188</t>
-  </si>
-  <si>
-    <t>http://vk.com/photo-83928126_415214254</t>
-  </si>
-  <si>
-    <t>http://vk.com/photo-83928126_415214058</t>
-  </si>
-  <si>
     <t>пальто, футер</t>
   </si>
   <si>
@@ -179,17 +149,47 @@
     <t>пальто</t>
   </si>
   <si>
-    <t>http://vk.com/photo155247_419260110</t>
-  </si>
-  <si>
-    <t>Стоимость, руб</t>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Изображение</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c636218/v636218247/49c7/GvUn55Dh7M8.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c636218/v636218247/493f/InsCDY8-sjA.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c630025/v630025247/3db04/2e_11g6QcAw.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c630025/v630025247/3db1f/qxADtYQUROU.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c630025/v630025247/3db3a/QYgnXv2uW4c.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c630025/v630025247/3daf2/8SuKQLR3Bms.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c630025/v630025247/3db9d/ZlSTzZNTqQI.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c630025/v630025247/3d9d4/uzv3RN6tShM.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c636416/v636416247/190a8/YO7KBf27L9g.jpg</t>
+  </si>
+  <si>
+    <t>https://pp.vk.me/c630025/v630025247/3dace/ugREgEGR0cY.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,16 +247,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -563,7 +575,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -614,28 +626,28 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3">
         <v>3500</v>
@@ -645,28 +657,28 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K3" s="3">
         <v>5500</v>
@@ -676,28 +688,28 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K4" s="3">
         <v>3500</v>
@@ -707,28 +719,28 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K5" s="3">
         <v>5500</v>
@@ -738,28 +750,28 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="K6" s="3">
         <v>3800</v>
@@ -769,28 +781,28 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="K7" s="3">
         <v>3800</v>
@@ -800,28 +812,28 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K8" s="3">
         <v>3500</v>
@@ -831,28 +843,28 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3">
         <v>4700</v>
@@ -862,28 +874,28 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="K10" s="3">
         <v>4700</v>
@@ -893,27 +905,27 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="3">
@@ -924,28 +936,28 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K12" s="3">
         <v>6800</v>
@@ -1030,7 +1042,14 @@
       <c r="K18" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="J7" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>